--- a/data/unchecked/manual_collect/china/yunnan/yunnanCaseStatistics_20200220.xlsx
+++ b/data/unchecked/manual_collect/china/yunnan/yunnanCaseStatistics_20200220.xlsx
@@ -10757,7 +10757,7 @@
   <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10946,7 +10946,9 @@
       <c r="K2" s="13">
         <v>19</v>
       </c>
-      <c r="L2" s="12"/>
+      <c r="L2" s="12">
+        <v>1</v>
+      </c>
       <c r="M2" s="12">
         <v>174</v>
       </c>
